--- a/biology/Botanique/Alkmène/Alkmène.xlsx
+++ b/biology/Botanique/Alkmène/Alkmène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alkmène est un cultivar de pommier domestique créé en Allemagne vers 1930.
 Nom botanique : Malus domestica Borkh alkmene
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Utilisation : pomme à couteau
 Calibre : moyen
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Création par M. Schmidt, Institut Kaiser Wilhelm, Allemagne vers 1930[1]. La diffusion du cultivar s'est faite dans les années 60.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Création par M. Schmidt, Institut Kaiser Wilhelm, Allemagne vers 1930. La diffusion du cultivar s'est faite dans les années 60.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pedigree: Dr Oldenburg × Cox's Orange Pippin[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pedigree: Dr Oldenburg × Cox's Orange Pippin
 mutants:
-Alkmène rouge (en: Red Windsor) (de: Alkmene rot), cette pomme conviendrait aux personnes allergiques[3].</t>
+Alkmène rouge (en: Red Windsor) (de: Alkmene rot), cette pomme conviendrait aux personnes allergiques.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +628,14 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde et autofertile
-Groupe de floraison: A[4]-B (très précoce)
-S-génotype: S5S22[5]
-La relative rareté des S-génotypes de ce cultivar (5 et surtout 22) dans les variétés plantées dans les jardins[6] en fait un pollinisateur de premier choix. Pour la pollinisation croisée, cette caractéristique intervient positivement tant sur sa production de fruits que sur celle de vos autres pommiers.
+Groupe de floraison: A-B (très précoce)
+S-génotype: S5S22
+La relative rareté des S-génotypes de ce cultivar (5 et surtout 22) dans les variétés plantées dans les jardins en fait un pollinisateur de premier choix. Pour la pollinisation croisée, cette caractéristique intervient positivement tant sur sa production de fruits que sur celle de vos autres pommiers.
 Pollinisation par: Reinette Cox, Reine des reinettes, James Grieve, Piros, Golden Delicious
 </t>
         </is>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alkm%C3%A8ne</t>
+          <t>Alkmène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité : septembre
 Conservation : jusque fin octobre
